--- a/氣象性能評估工具V2/data/obs/backup/2016-06-11_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-11_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-11 00:00:00</t>
+    <t>2016-06-11-00</t>
   </si>
   <si>
     <t>19.9</t>
@@ -157,7 +157,7 @@
     <t>26.6</t>
   </si>
   <si>
-    <t>2016-06-11 01:00:00</t>
+    <t>2016-06-11-01</t>
   </si>
   <si>
     <t>20.0</t>
@@ -187,7 +187,7 @@
     <t>27.2</t>
   </si>
   <si>
-    <t>2016-06-11 02:00:00</t>
+    <t>2016-06-11-02</t>
   </si>
   <si>
     <t>20.2</t>
@@ -217,7 +217,7 @@
     <t>27.3</t>
   </si>
   <si>
-    <t>2016-06-11 03:00:00</t>
+    <t>2016-06-11-03</t>
   </si>
   <si>
     <t>21.5</t>
@@ -232,7 +232,7 @@
     <t>27.5</t>
   </si>
   <si>
-    <t>2016-06-11 04:00:00</t>
+    <t>2016-06-11-04</t>
   </si>
   <si>
     <t>20.9</t>
@@ -247,7 +247,7 @@
     <t>24.3</t>
   </si>
   <si>
-    <t>2016-06-11 05:00:00</t>
+    <t>2016-06-11-05</t>
   </si>
   <si>
     <t>22.4</t>
@@ -262,7 +262,7 @@
     <t>26.7</t>
   </si>
   <si>
-    <t>2016-06-11 06:00:00</t>
+    <t>2016-06-11-06</t>
   </si>
   <si>
     <t>22.3</t>
@@ -271,7 +271,7 @@
     <t>26.4</t>
   </si>
   <si>
-    <t>2016-06-11 07:00:00</t>
+    <t>2016-06-11-07</t>
   </si>
   <si>
     <t>21.4</t>
@@ -292,7 +292,7 @@
     <t>14.3</t>
   </si>
   <si>
-    <t>2016-06-11 08:00:00</t>
+    <t>2016-06-11-08</t>
   </si>
   <si>
     <t>28.6</t>
@@ -322,7 +322,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>2016-06-11 09:00:00</t>
+    <t>2016-06-11-09</t>
   </si>
   <si>
     <t>24.0</t>
@@ -340,7 +340,7 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>2016-06-11 10:00:00</t>
+    <t>2016-06-11-10</t>
   </si>
   <si>
     <t>23.6</t>
@@ -358,7 +358,7 @@
     <t>29.6</t>
   </si>
   <si>
-    <t>2016-06-11 11:00:00</t>
+    <t>2016-06-11-11</t>
   </si>
   <si>
     <t>22.9</t>
@@ -373,7 +373,7 @@
     <t>14.1</t>
   </si>
   <si>
-    <t>2016-06-11 12:00:00</t>
+    <t>2016-06-11-12</t>
   </si>
   <si>
     <t>21.1</t>
@@ -382,7 +382,7 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>2016-06-11 13:00:00</t>
+    <t>2016-06-11-13</t>
   </si>
   <si>
     <t>20.8</t>
@@ -394,7 +394,7 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>2016-06-11 14:00:00</t>
+    <t>2016-06-11-14</t>
   </si>
   <si>
     <t>22.5</t>
@@ -412,7 +412,7 @@
     <t>5.6</t>
   </si>
   <si>
-    <t>2016-06-11 15:00:00</t>
+    <t>2016-06-11-15</t>
   </si>
   <si>
     <t>23.2</t>
@@ -427,7 +427,7 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>2016-06-11 16:00:00</t>
+    <t>2016-06-11-16</t>
   </si>
   <si>
     <t>27.6</t>
@@ -439,7 +439,7 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>2016-06-11 17:00:00</t>
+    <t>2016-06-11-17</t>
   </si>
   <si>
     <t>23.0</t>
@@ -454,7 +454,7 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>2016-06-11 18:00:00</t>
+    <t>2016-06-11-18</t>
   </si>
   <si>
     <t>23.5</t>
@@ -469,7 +469,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-11 19:00:00</t>
+    <t>2016-06-11-19</t>
   </si>
   <si>
     <t>23.8</t>
@@ -478,19 +478,19 @@
     <t>12.7</t>
   </si>
   <si>
-    <t>2016-06-11 20:00:00</t>
+    <t>2016-06-11-20</t>
   </si>
   <si>
     <t>12.5</t>
   </si>
   <si>
-    <t>2016-06-11 21:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-11 22:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-11 23:00:00</t>
+    <t>2016-06-11-21</t>
+  </si>
+  <si>
+    <t>2016-06-11-22</t>
+  </si>
+  <si>
+    <t>2016-06-11-23</t>
   </si>
   <si>
     <t>20.7</t>
